--- a/Laporan/PSSUQ-report.xlsx
+++ b/Laporan/PSSUQ-report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -194,6 +194,75 @@
   </si>
   <si>
     <t>3503e1936f</t>
+  </si>
+  <si>
+    <t>Iterasi 1</t>
+  </si>
+  <si>
+    <t>Iterasi 2</t>
+  </si>
+  <si>
+    <t>Iterasi 3</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Start Date</t>
   </si>
 </sst>
 </file>
@@ -276,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -5965,175 +6035,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2</v>
-      </c>
-      <c r="L2" s="6">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6">
-        <v>2</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>2</v>
-      </c>
-      <c r="R2" s="8">
-        <v>2</v>
-      </c>
-      <c r="S2" s="8">
-        <v>4</v>
-      </c>
-      <c r="T2" s="10">
-        <v>4</v>
-      </c>
-      <c r="U2" s="2">
-        <v>42678.41</v>
-      </c>
-      <c r="V2" s="2">
-        <v>42678.418495370373</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>5</v>
@@ -6142,13 +6148,13 @@
         <v>5</v>
       </c>
       <c r="H3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="6">
         <v>2</v>
@@ -6178,13 +6184,13 @@
         <v>4</v>
       </c>
       <c r="T3" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3" s="2">
-        <v>42678.424398148149</v>
+        <v>42678.701666666668</v>
       </c>
       <c r="V3" s="2">
-        <v>42678.425833333335</v>
+        <v>42678.710162037038</v>
       </c>
       <c r="W3" t="s">
         <v>23</v>
@@ -6192,70 +6198,70 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
       </c>
       <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
       <c r="F4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="6">
         <v>4</v>
       </c>
       <c r="K4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O4" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4" s="2">
-        <v>42678.436689814815</v>
+        <v>42678.716064814813</v>
       </c>
       <c r="V4" s="2">
-        <v>42678.438125000001</v>
+        <v>42678.717499999999</v>
       </c>
       <c r="W4" t="s">
         <v>23</v>
@@ -6263,70 +6269,70 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
         <v>6</v>
       </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>3</v>
-      </c>
       <c r="M5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" s="8">
         <v>6</v>
       </c>
       <c r="T5" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" s="2">
-        <v>42678.44195601852</v>
+        <v>42678.728356481479</v>
       </c>
       <c r="V5" s="2">
-        <v>42678.447164351855</v>
+        <v>42678.729791666665</v>
       </c>
       <c r="W5" t="s">
         <v>23</v>
@@ -6334,13 +6340,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -6352,34 +6358,34 @@
         <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="6">
         <v>6</v>
       </c>
       <c r="K6" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="6">
         <v>4</v>
       </c>
       <c r="N6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="6">
         <v>4</v>
       </c>
       <c r="P6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="8">
         <v>3</v>
@@ -6388,16 +6394,16 @@
         <v>4</v>
       </c>
       <c r="S6" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U6" s="2">
-        <v>42678.447395833333</v>
+        <v>42678.733622685184</v>
       </c>
       <c r="V6" s="2">
-        <v>42678.454942129632</v>
+        <v>42678.73883101852</v>
       </c>
       <c r="W6" t="s">
         <v>23</v>
@@ -6405,229 +6411,163 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7" s="6">
         <v>4</v>
       </c>
       <c r="M7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S7" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U7" s="2">
-        <v>42681.474872685183</v>
+        <v>42678.739062499997</v>
       </c>
       <c r="V7" s="2">
-        <v>42681.477546296293</v>
+        <v>42678.746608796297</v>
       </c>
       <c r="W7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>2</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6">
-        <v>4</v>
-      </c>
-      <c r="P8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>2</v>
-      </c>
-      <c r="R8" s="8">
-        <v>3</v>
-      </c>
-      <c r="S8" s="8">
-        <v>6</v>
-      </c>
-      <c r="T8" s="10">
-        <v>4</v>
-      </c>
-      <c r="U8" s="2">
-        <v>42681.481562499997</v>
-      </c>
-      <c r="V8" s="2">
-        <v>42681.529675925929</v>
-      </c>
-      <c r="W8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5</v>
-      </c>
-      <c r="L9" s="6">
-        <v>3</v>
-      </c>
-      <c r="M9" s="6">
-        <v>2</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>4</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1</v>
-      </c>
-      <c r="S9" s="8">
-        <v>5</v>
-      </c>
-      <c r="T9" s="10">
-        <v>5</v>
-      </c>
-      <c r="U9" s="2">
-        <v>42681.529791666668</v>
-      </c>
-      <c r="V9" s="2">
-        <v>42681.531261574077</v>
-      </c>
-      <c r="W9" t="s">
-        <v>24</v>
+      <c r="A8" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
         <v>4</v>
@@ -6636,52 +6576,52 @@
         <v>3</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="6">
         <v>2</v>
       </c>
       <c r="L10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" s="2">
-        <v>42681.534722222219</v>
+        <v>42681.766539351855</v>
       </c>
       <c r="V10" s="2">
-        <v>42681.535787037035</v>
+        <v>42681.769212962965</v>
       </c>
       <c r="W10" t="s">
         <v>24</v>
@@ -6689,43 +6629,43 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4">
         <v>4</v>
       </c>
       <c r="H11" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
       </c>
       <c r="J11" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="6">
         <v>3</v>
@@ -6740,380 +6680,670 @@
         <v>2</v>
       </c>
       <c r="R11" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T11" s="10">
         <v>4</v>
       </c>
       <c r="U11" s="2">
-        <v>42681.545277777775</v>
+        <v>42681.773229166669</v>
       </c>
       <c r="V11" s="2">
-        <v>42681.5546412037</v>
+        <v>42681.821342592593</v>
       </c>
       <c r="W11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12" s="6">
         <v>3</v>
       </c>
       <c r="M12" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U12" s="2">
-        <v>42682.316365740742</v>
+        <v>42681.821458333332</v>
       </c>
       <c r="V12" s="2">
-        <v>42682.319120370368</v>
+        <v>42681.822928240741</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
       </c>
       <c r="G13" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U13" s="2">
-        <v>42682.339537037034</v>
+        <v>42681.826388888891</v>
       </c>
       <c r="V13" s="2">
-        <v>42682.340081018519</v>
+        <v>42681.827453703707</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3</v>
+      </c>
+      <c r="N14" s="6">
+        <v>3</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4</v>
+      </c>
+      <c r="P14" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>2</v>
+      </c>
+      <c r="R14" s="8">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8">
+        <v>5</v>
+      </c>
+      <c r="T14" s="10">
+        <v>4</v>
+      </c>
+      <c r="U14" s="2">
+        <v>42681.836944444447</v>
+      </c>
+      <c r="V14" s="2">
+        <v>42681.846307870372</v>
+      </c>
+      <c r="W14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6">
+        <v>3</v>
+      </c>
+      <c r="L17" s="6">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
+        <v>3</v>
+      </c>
+      <c r="O17" s="6">
+        <v>3</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>3</v>
+      </c>
+      <c r="R17" s="8">
+        <v>2</v>
+      </c>
+      <c r="S17" s="8">
+        <v>3</v>
+      </c>
+      <c r="T17" s="10">
+        <v>2</v>
+      </c>
+      <c r="U17" s="2">
+        <v>42682.608032407406</v>
+      </c>
+      <c r="V17" s="2">
+        <v>42682.61078703704</v>
+      </c>
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1</v>
+      </c>
+      <c r="T18" s="10">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>42682.631203703706</v>
+      </c>
+      <c r="V18" s="2">
+        <v>42682.631747685184</v>
+      </c>
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>4</v>
-      </c>
-      <c r="K14" s="6">
-        <v>3</v>
-      </c>
-      <c r="L14" s="6">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6">
-        <v>3</v>
-      </c>
-      <c r="N14" s="6">
-        <v>2</v>
-      </c>
-      <c r="O14" s="6">
-        <v>2</v>
-      </c>
-      <c r="P14" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>2</v>
-      </c>
-      <c r="R14" s="8">
-        <v>2</v>
-      </c>
-      <c r="S14" s="8">
-        <v>1</v>
-      </c>
-      <c r="T14" s="10">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
-        <v>42682.340729166666</v>
-      </c>
-      <c r="V14" s="2">
-        <v>42682.34611111111</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4</v>
+      </c>
+      <c r="M19" s="6">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>2</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>2</v>
+      </c>
+      <c r="R19" s="8">
+        <v>2</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1</v>
+      </c>
+      <c r="T19" s="10">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>42682.632395833331</v>
+      </c>
+      <c r="V19" s="2">
+        <v>42682.637777777774</v>
+      </c>
+      <c r="W19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>4</v>
-      </c>
-      <c r="J15" s="6">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6">
-        <v>4</v>
-      </c>
-      <c r="L15" s="6">
-        <v>3</v>
-      </c>
-      <c r="M15" s="6">
-        <v>4</v>
-      </c>
-      <c r="N15" s="6">
-        <v>3</v>
-      </c>
-      <c r="O15" s="6">
-        <v>3</v>
-      </c>
-      <c r="P15" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>2</v>
-      </c>
-      <c r="R15" s="8">
-        <v>2</v>
-      </c>
-      <c r="S15" s="8">
-        <v>2</v>
-      </c>
-      <c r="T15" s="10">
-        <v>2</v>
-      </c>
-      <c r="U15" s="2">
-        <v>42682.367476851854</v>
-      </c>
-      <c r="V15" s="2">
-        <v>42682.368518518517</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>4</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4</v>
+      </c>
+      <c r="N20" s="6">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3</v>
+      </c>
+      <c r="P20" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>2</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>2</v>
+      </c>
+      <c r="T20" s="10">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>42682.659143518518</v>
+      </c>
+      <c r="V20" s="2">
+        <v>42682.660185185188</v>
+      </c>
+      <c r="W20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>4</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>4</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>1</v>
-      </c>
-      <c r="R16" s="8">
-        <v>2</v>
-      </c>
-      <c r="S16" s="8">
-        <v>3</v>
-      </c>
-      <c r="T16" s="10">
-        <v>2</v>
-      </c>
-      <c r="U16" s="2">
-        <v>42682.368969907409</v>
-      </c>
-      <c r="V16" s="2">
-        <v>42682.391793981478</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2</v>
+      </c>
+      <c r="L21" s="6">
+        <v>4</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2</v>
+      </c>
+      <c r="S21" s="8">
+        <v>3</v>
+      </c>
+      <c r="T21" s="10">
+        <v>2</v>
+      </c>
+      <c r="U21" s="2">
+        <v>42682.660636574074</v>
+      </c>
+      <c r="V21" s="2">
+        <v>42682.68346064815</v>
+      </c>
+      <c r="W21" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>